--- a/药品导入模板.xlsx
+++ b/药品导入模板.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10AE37C4-6F38-4CF5-B3DE-0A5670B8ADF5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,10 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
-  <si>
-    <r>
-      <t>药品名字(</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+  <si>
+    <r>
+      <t>主要成分(</t>
     </r>
     <r>
       <rPr>
@@ -50,7 +49,7 @@
   </si>
   <si>
     <r>
-      <t>主要成分(</t>
+      <t>使用方法(</t>
     </r>
     <r>
       <rPr>
@@ -76,8 +75,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>使用范围(</t>
+    <t>密封、避光、阴凉处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶象花_yexianghua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金大戟科植物猩猩草Euphorbia heterophylla L．的干燥全草。银花、黄芩、连翘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚不明确。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地耳草_diercao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤黄科植物地耳草Hypericum japonicum Thunb.ex Murray的干燥全草。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内服：煎汤，15～30克，鲜品30～60克，大剂可用至90～120克；或捣汁。外用：适量，捣烂外敷，或煎水洗。主治湿热黄疸，泄泻，痢疾，肠痈，肺痈，痈疖肿毒，乳蛾，口疮，目赤肿痛，毒蛇咬伤，跌打损伤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>药品名字(</t>
     </r>
     <r>
       <rPr>
@@ -104,7 +131,7 @@
   </si>
   <si>
     <r>
-      <t>使用方法(</t>
+      <t>使用范围(</t>
     </r>
     <r>
       <rPr>
@@ -238,19 +265,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金银花、黄芩、连翘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疏风解表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>味甜、微苦</t>
+    <t>凉血调经，散瘀消肿。属止血药下属分类的温经止血药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内服：煎汤，3～9克，外用：适量，鲜品捣敷。主治月经过多，外伤肿痛，出血，骨折。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,34 +277,210 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20支/盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦恋口服液2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦恋口服液3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦恋口服液4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦恋口服液5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦恋口服液7</t>
+    <t>四季均可采收。洗净，鲜用或晒干。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠板归_gangbangui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓼科植物杠板归Polygonum perfoliatum L.的全草。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热解毒、利咽祛湿。属清热药下属分类的清热解毒药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量15～30克，鲜品60～100克；外用适量，捣敷或煎水洗。用治热毒咽喉肿痛、肺热咳嗽、湿热黄疸、水肿、慢性湿疹、瘰疬、疥癣、下肢关节肿痛、淋浊、痢疾等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有较强的抗菌、抗病毒作用；对肾性高血压大鼠有抗高血压作用，可显著影响其心肌收缩和血压；具有一定抗诱变作用，对实验动物肿瘤有抑制作用，尚有止血等作用。煎剂对金黄色葡萄球菌、乙型溶血性链球菌及枯草、大肠、宋内氏痢疾、志贺氏痢疾等杆菌有抑制作用。对实验动物肿瘤有抑制作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏季开花时采收，洗净，晒干。生用或鲜用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊蹄草_yangticao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菊科植物一点红Emilia sonchifolia (L.) DC.的全草。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热解毒、消炎、利尿。属清热药下属分类的清热解毒药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量15～30克，煎服；外用适量，鲜品捣烂敷患处。用治上呼吸道感染、咽喉肿痛、口腔溃疡、肺炎、急性肠炎、细菌性痢疾、泌尿系统感染、睾丸炎、乳腺炎、疖肿疮疡、皮肤湿疹、跌打扭伤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%煎剂用平板打洞法，对金黄色葡萄球菌、绿脓杆菌、铜绿假单胞菌、伤寒杆菌有抑制作用。其甲醇提取物对艾氏腹水瘤EAC、小鼠成纤维细胞株L929有细胞毒性，并能抑制肿瘤的增长，延长小鼠存活时间和抑制DNA合成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏、秋季采收，洗净，晒干，或趁鲜切段，晒干。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地锦草_dijincao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大戟科植物地锦Euphorbia humifusa Willd,或斑地锦EuphorbiamaculataL.的全草。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热解毒、凉血止血。属清热药下属分类的清热解毒药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量9～20克，水煎服或入散剂，鲜品30~60克；外用捣敷或研末撒。用治痢疾、肠炎、咯血、尿血、便血、崩漏、疮疖痈肿。具有抑菌、止血和中和毒素等作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有抗菌和抗寄生虫及解毒作用；止血效果明显。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏、秋季采全草，洗净，晒干。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热利湿，解毒，散瘀消肿，止痛。属清热药下属分类的清热燥湿药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有抗菌作用；对在体和离体蟾蜍心脏有先兴奋后抑制的作用，剂量过大可致心脏纤颤而使心跳停止；对麻醉犬有一定降压作用；能加强离体兔肠收缩，浓度过高可致痉挛，与乙酰胆碱有协同作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春、夏季开花时采收全草，晒干或鲜用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唇形科植物活血丹Glechoma longituba (Nakai) Kupr.的全草。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量15～30克，鲜品30～60克；外用适量，捣敷。用治血瘀腹痛、跌打损伤、水肿、小便不利、湿热黄疸、带下、痈肿疮毒、毒蛇咬伤等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本品具有利尿、利胆、抗溃疡、溶解结石等作用；还有抑菌作用，对金黄色葡萄球菌及伤寒、福氏痢疾、宋氏痢疾、绿脓杆菌等均有抑制作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密封、避光、阴凉处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎耳草_huercao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎耳草科植物虎耳草Saxifraga stolonifera Meerb.的全草。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利湿通淋、清热解毒、散瘀消肿。属利水渗湿药下属分类的利尿通淋药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛风、清热、清血解毒。属清热药下属分类的清热凉血药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量10～15克，煎汤内服；外用适量，煎水洗；鲜用捣敷；或绞汁滴耳及涂布。用治风疹、湿疹、中耳炎、丹毒、咳嗽吐血、肺痈、崩漏、痔疾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对变形杆菌、伤寒杆菌、痢疾杆菌、金黄色葡萄球菌、绿脓杆菌有不同程度抑制作用。具有强心、利尿作用；对葡萄球菌和链球菌体外实验未发现抑制作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏季割取地上部分，鲜用或晒干。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春、秋季采收，洗净，晒干。生用或鲜用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸筋草_shenjincao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石松科植物石松Lycopodium clavatum L.的带根全草。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性温，味微苦、辛。归肝经、脾经、肾经。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛风寒、除湿消肿、舒筋活络。属祛风湿药下分类的祛风湿强筋骨药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于风寒湿痹、关节酸痛、皮肤麻木、四肢软弱、水肿、跌打损伤。煎汤内服，用量3～12克。外用适量，捣敷患处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏、秋季茎叶繁茂时连根拔起，除去泥土、杂质，晒干。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鹳草_laoguancao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牻牛儿苗科科植物栊牛儿苗Erodium. stephania-num Willd.、老鹳草Geranium wil ordii Maxim.或野老颧草Geranium carolinianum L.的全草。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛风湿，通经络，止泻痢。属祛风湿药下属分类的祛风湿强筋骨药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量9～15克，水煎服。临床常用于治疗风湿痹痛、麻木拘挛、筋骨酸痛、泄泻痢疾等症。药理实验表明：老颧草具有抗菌、抗病毒、抗炎、抗肝损伤等作用。此外，尚有止咳、抗氧化、抗诱变及杀伤癌细胞等药理作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白花丹_baihuadan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白花丹科植物白花丹Plumbago zeyla-nicaL．的干燥全草或根。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性温，味辛、苦、涩。有毒。归经无。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛风除湿，行气活血，解毒消肿。属活血化瘀药下属分类的活血止痛药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内服：煎汤，9～15克。外用：适量，煎水洗；或捣敷；或涂擦。主治风湿痹痛，心胃气痛，肝脾肿大，血瘀经闭，跌打扭伤，痈肿瘰疬，疥癣瘙痒，毒蛇咬伤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连钱草_lianqiancao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,18 +806,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
@@ -631,163 +826,290 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H2">
-        <v>21.01</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>21.01</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H4">
-        <v>21.01</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H5">
-        <v>21.01</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H61">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>21.01</v>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A62" r:id="rId1" display="http://www.zhongyoo.com/name/gongbangui_980.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>